--- a/rz.2016.xlsx
+++ b/rz.2016.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>日期</t>
   </si>
@@ -70,6 +70,51 @@
   </si>
   <si>
     <t>the new input</t>
+  </si>
+  <si>
+    <t>2016-10-23</t>
+  </si>
+  <si>
+    <t>17:54</t>
+  </si>
+  <si>
+    <t>dfdsfd</t>
+  </si>
+  <si>
+    <t>18:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsad </t>
+  </si>
+  <si>
+    <t>dsafd</t>
+  </si>
+  <si>
+    <t>18:05</t>
+  </si>
+  <si>
+    <t>fdfd</t>
+  </si>
+  <si>
+    <t>女狂奔</t>
+  </si>
+  <si>
+    <t>18:11</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>sdfdsafds</t>
+  </si>
+  <si>
+    <t>sdafads</t>
+  </si>
+  <si>
+    <t>18:12</t>
+  </si>
+  <si>
+    <t>本机哦</t>
   </si>
 </sst>
 </file>
@@ -975,98 +1020,98 @@
     </border>
   </borders>
   <cellStyleXfs count="92">
-    <xf borderId="0" fillId="18" fontId="31" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="50" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="54" fontId="38" numFmtId="0"/>
+    <xf borderId="0" fillId="33" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="33" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="30" numFmtId="0"/>
+    <xf borderId="9" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="34" fontId="18" numFmtId="0"/>
+    <xf borderId="11" fillId="31" fontId="25" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0"/>
+    <xf borderId="15" fillId="20" fontId="33" numFmtId="0"/>
+    <xf borderId="0" fillId="40" fontId="28" numFmtId="0"/>
+    <xf borderId="0" fillId="41" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="15" numFmtId="0"/>
     <xf borderId="0" fillId="27" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="53" fontId="5" numFmtId="0"/>
+    <xf borderId="13" fillId="0" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0"/>
+    <xf borderId="20" fillId="47" fontId="37" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="6" numFmtId="0"/>
+    <xf borderId="12" fillId="36" fontId="32" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="37" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="43" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="52" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="39" fontId="6" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="50" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="51" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0"/>
+    <xf borderId="16" fillId="0" fontId="34" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0"/>
+    <xf borderId="10" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0"/>
+    <xf borderId="12" fillId="28" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="34" fontId="15" numFmtId="0"/>
+    <xf borderId="18" fillId="46" fontId="35" numFmtId="0"/>
+    <xf borderId="0" fillId="49" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="38" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="6" numFmtId="0"/>
+    <xf borderId="8" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="18" numFmtId="0"/>
     <xf borderId="11" fillId="20" fontId="22" numFmtId="0"/>
-    <xf borderId="0" fillId="51" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="44" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="18" numFmtId="0"/>
+    <xf borderId="14" fillId="36" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="35" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="14" fillId="36" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="48" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="37" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="18" numFmtId="0"/>
+    <xf borderId="17" fillId="45" fontId="27" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="31" numFmtId="0"/>
+    <xf borderId="0" fillId="54" fontId="38" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="19" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="6" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="42" fontId="5" numFmtId="0"/>
-    <xf borderId="13" fillId="0" fontId="23" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="19" fillId="0" fontId="36" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="20" numFmtId="0"/>
+    <xf borderId="7" fillId="5" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="16" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="48" fontId="5" numFmtId="0"/>
-    <xf borderId="17" fillId="45" fontId="27" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0"/>
-    <xf borderId="8" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="0" numFmtId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="37" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="18" numFmtId="0"/>
-    <xf borderId="11" fillId="31" fontId="25" numFmtId="0"/>
-    <xf borderId="20" fillId="47" fontId="37" numFmtId="0"/>
-    <xf borderId="7" fillId="5" fontId="10" numFmtId="0"/>
-    <xf borderId="15" fillId="20" fontId="33" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="15" numFmtId="0"/>
-    <xf borderId="12" fillId="28" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="49" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="34" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="44" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="8" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="41" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="18" numFmtId="0"/>
-    <xf borderId="9" fillId="0" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="39" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="53" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="34" fontId="15" numFmtId="0"/>
-    <xf borderId="10" fillId="0" fontId="19" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="41" fontId="29" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0"/>
-    <xf borderId="0" fillId="37" fontId="15" numFmtId="0"/>
-    <xf borderId="6" fillId="0" fontId="30" numFmtId="0"/>
-    <xf borderId="0" fillId="41" fontId="29" numFmtId="0"/>
-    <xf borderId="0" fillId="43" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="16" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="5" numFmtId="0"/>
-    <xf borderId="16" fillId="0" fontId="34" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
-    <xf borderId="18" fillId="46" fontId="35" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="12" fillId="36" fontId="32" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="38" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="52" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="20" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="8" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0"/>
-    <xf borderId="19" fillId="0" fontId="36" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="40" fontId="28" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="23"/>
@@ -1095,98 +1140,98 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="92">
-    <cellStyle name="差 2" xfId="0"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="1"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="2"/>
-    <cellStyle builtinId="28" name="适中" xfId="3"/>
-    <cellStyle name="常规 2 2" xfId="4"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="5"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="6"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="7"/>
-    <cellStyle builtinId="22" name="计算" xfId="8"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="9"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="10"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="0"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
+    <cellStyle builtinId="15" name="标题" xfId="2"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="3"/>
+    <cellStyle name="标题 1 2" xfId="4"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="5"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="6"/>
+    <cellStyle builtinId="20" name="输入" xfId="7"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="8"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="9"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="10"/>
     <cellStyle name="标题 4 2" xfId="11"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="12"/>
-    <cellStyle name="输出 2" xfId="13"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="14"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="15"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="16"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="17"/>
-    <cellStyle name="标题 3 2" xfId="18"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="19"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="注释 2" xfId="21"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="22"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="23"/>
-    <cellStyle builtinId="0" name="常规" xfId="24"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="25"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="26"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="27"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="28"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="30"/>
-    <cellStyle builtinId="20" name="输入" xfId="31"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="32"/>
-    <cellStyle builtinId="10" name="注释" xfId="33"/>
-    <cellStyle builtinId="21" name="输出" xfId="34"/>
-    <cellStyle builtinId="8" name="超链接" xfId="35"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="36"/>
-    <cellStyle name="60% - 强调文字颜色 6 2" xfId="37"/>
-    <cellStyle name="输入 2" xfId="38"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="39"/>
-    <cellStyle name="常规 2" xfId="40"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="42"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="44"/>
+    <cellStyle builtinId="21" name="输出" xfId="12"/>
+    <cellStyle builtinId="27" name="差" xfId="13"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="14"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="15"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="16"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="17"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="18"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="19"/>
+    <cellStyle name="标题 3 2" xfId="20"/>
+    <cellStyle name="60% - 强调文字颜色 6 2" xfId="21"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="22"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="23"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="24"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="25"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="26"/>
+    <cellStyle builtinId="0" name="常规" xfId="27"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="28"/>
+    <cellStyle name="计算 2" xfId="29"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="30"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="31"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="32"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="33"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="34"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="35"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="36"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="37"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="38"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="39"/>
+    <cellStyle builtinId="4" name="货币" xfId="40"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="41"/>
+    <cellStyle name="链接单元格 2" xfId="42"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="43"/>
+    <cellStyle builtinId="25" name="汇总" xfId="44"/>
     <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="45"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="46"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="47"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="49"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="50"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="52"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="53"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="54"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="55"/>
-    <cellStyle name="标题 1 2" xfId="56"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="57"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="58"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="59"/>
-    <cellStyle name="汇总 2" xfId="60"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="61"/>
-    <cellStyle builtinId="25" name="汇总" xfId="62"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="63"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="64"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="65"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="66"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="67"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="68"/>
-    <cellStyle name="好 2" xfId="69"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="71"/>
-    <cellStyle name="适中 2" xfId="72"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="73"/>
-    <cellStyle name="链接单元格 2" xfId="74"/>
-    <cellStyle builtinId="5" name="百分比" xfId="75"/>
-    <cellStyle name="检查单元格 2" xfId="76"/>
-    <cellStyle name="标题 5" xfId="77"/>
-    <cellStyle name="计算 2" xfId="78"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="79"/>
-    <cellStyle name="60% - 强调文字颜色 1 2" xfId="80"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="81"/>
-    <cellStyle name="解释性文本 2" xfId="82"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="83"/>
-    <cellStyle builtinId="15" name="标题" xfId="84"/>
-    <cellStyle builtinId="26" name="好" xfId="85"/>
-    <cellStyle name="警告文本 2" xfId="86"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="87"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="88"/>
-    <cellStyle name="标题 2 2" xfId="89"/>
-    <cellStyle builtinId="4" name="货币" xfId="90"/>
-    <cellStyle builtinId="27" name="差" xfId="91"/>
+    <cellStyle name="解释性文本 2" xfId="46"/>
+    <cellStyle name="输入 2" xfId="47"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="48"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="49"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="50"/>
+    <cellStyle name="检查单元格 2" xfId="51"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="52"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="54"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="55"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="56"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="58"/>
+    <cellStyle builtinId="22" name="计算" xfId="59"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="60"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="61"/>
+    <cellStyle name="输出 2" xfId="62"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="63"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="64"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="65"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="66"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="67"/>
+    <cellStyle name="注释 2" xfId="68"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="69"/>
+    <cellStyle name="差 2" xfId="70"/>
+    <cellStyle builtinId="28" name="适中" xfId="71"/>
+    <cellStyle name="警告文本 2" xfId="72"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="73"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="74"/>
+    <cellStyle name="汇总 2" xfId="75"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="76"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="77"/>
+    <cellStyle name="标题 2 2" xfId="78"/>
+    <cellStyle builtinId="26" name="好" xfId="79"/>
+    <cellStyle builtinId="10" name="注释" xfId="80"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="81"/>
+    <cellStyle name="适中 2" xfId="82"/>
+    <cellStyle builtinId="5" name="百分比" xfId="83"/>
+    <cellStyle name="标题 5" xfId="84"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="85"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="86"/>
+    <cellStyle name="常规 2" xfId="87"/>
+    <cellStyle builtinId="8" name="超链接" xfId="88"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="89"/>
+    <cellStyle name="好 2" xfId="90"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="91"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -1525,7 +1570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -1604,7 +1649,106 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
